--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2960.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2960.xlsx
@@ -354,7 +354,7 @@
         <v>2.867637353781024</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.090461783974337</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2960.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2960.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.222450167565561</v>
+        <v>0.3363324105739594</v>
       </c>
       <c r="B1">
-        <v>2.867637353781024</v>
+        <v>0.2017912417650223</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.2689874768257141</v>
       </c>
       <c r="D1">
-        <v>2.090461783974337</v>
+        <v>3.49756908416748</v>
       </c>
       <c r="E1">
-        <v>1.183017030800697</v>
+        <v>3.939542293548584</v>
       </c>
     </row>
   </sheetData>
